--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_DLNgocHoan.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_DLNgocHoan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="44" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>WP21110052S00936</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.144,16767</t>
   </si>
 </sst>
 </file>
@@ -667,6 +673,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -685,34 +718,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,43 +1060,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1135,26 +1141,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
+      <c r="L4" s="71"/>
       <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
@@ -1164,7 +1170,7 @@
       <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="68" t="s">
@@ -1173,20 +1179,20 @@
       <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1211,7 +1217,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
@@ -1221,13 +1227,13 @@
       <c r="M5" s="69"/>
       <c r="N5" s="69"/>
       <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
+      <c r="P5" s="67"/>
       <c r="Q5" s="69"/>
       <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1263,7 +1269,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="58"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1302,7 +1308,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="58"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1339,7 +1345,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="58"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1376,7 +1382,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="58"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1413,7 +1419,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="58"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1442,7 +1448,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="58"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1471,7 +1477,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="58"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1502,7 +1508,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="58"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1531,7 +1537,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="58"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1560,7 +1566,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1589,7 +1595,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3305,13 +3311,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3323,6 +3322,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3333,8 +3339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3366,43 +3372,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3447,26 +3453,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
+      <c r="L4" s="71"/>
       <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
@@ -3476,7 +3482,7 @@
       <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="68" t="s">
@@ -3485,20 +3491,20 @@
       <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -3523,7 +3529,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
@@ -3533,13 +3539,13 @@
       <c r="M5" s="69"/>
       <c r="N5" s="69"/>
       <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
+      <c r="P5" s="67"/>
       <c r="Q5" s="69"/>
       <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3561,9 +3567,13 @@
         <v>66</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="J6" s="59"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
       <c r="N6" s="1"/>
@@ -3573,7 +3583,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3604,7 +3614,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3633,7 +3643,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3662,7 +3672,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3691,7 +3701,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3720,7 +3730,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3749,7 +3759,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3780,7 +3790,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3809,7 +3819,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3838,7 +3848,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3867,7 +3877,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5583,13 +5593,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5601,6 +5604,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5644,43 +5654,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5725,26 +5735,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
+      <c r="L4" s="71"/>
       <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
@@ -5754,7 +5764,7 @@
       <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="68" t="s">
@@ -5763,20 +5773,20 @@
       <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -5801,7 +5811,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
@@ -5811,13 +5821,13 @@
       <c r="M5" s="69"/>
       <c r="N5" s="69"/>
       <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
+      <c r="P5" s="67"/>
       <c r="Q5" s="69"/>
       <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5851,7 +5861,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5890,7 +5900,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5927,7 +5937,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5964,7 +5974,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6001,7 +6011,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6030,7 +6040,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6059,7 +6069,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6090,7 +6100,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6119,7 +6129,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6148,7 +6158,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6177,7 +6187,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7893,13 +7903,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7911,6 +7914,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7921,7 +7931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -7954,43 +7964,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8035,26 +8045,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
+      <c r="L4" s="71"/>
       <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
@@ -8064,7 +8074,7 @@
       <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="68" t="s">
@@ -8073,20 +8083,20 @@
       <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -8111,7 +8121,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
@@ -8121,13 +8131,13 @@
       <c r="M5" s="69"/>
       <c r="N5" s="69"/>
       <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
+      <c r="P5" s="67"/>
       <c r="Q5" s="69"/>
       <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8161,7 +8171,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8200,7 +8210,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8237,7 +8247,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8274,7 +8284,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8311,7 +8321,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8348,7 +8358,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8385,7 +8395,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8424,7 +8434,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8461,7 +8471,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8498,7 +8508,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8535,7 +8545,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10315,13 +10325,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10333,6 +10336,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10376,43 +10386,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10457,26 +10467,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
+      <c r="L4" s="71"/>
       <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
@@ -10486,7 +10496,7 @@
       <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="68" t="s">
@@ -10495,20 +10505,20 @@
       <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -10533,7 +10543,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
@@ -10543,13 +10553,13 @@
       <c r="M5" s="69"/>
       <c r="N5" s="69"/>
       <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
+      <c r="P5" s="67"/>
       <c r="Q5" s="69"/>
       <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10583,7 +10593,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10622,7 +10632,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10659,7 +10669,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10696,7 +10706,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10725,7 +10735,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10754,7 +10764,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10783,7 +10793,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10814,7 +10824,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10843,7 +10853,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10872,7 +10882,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10901,7 +10911,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12617,13 +12627,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12635,6 +12638,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12678,43 +12688,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12759,26 +12769,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
+      <c r="L4" s="71"/>
       <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
@@ -12788,7 +12798,7 @@
       <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="68" t="s">
@@ -12797,20 +12807,20 @@
       <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -12835,7 +12845,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
@@ -12845,13 +12855,13 @@
       <c r="M5" s="69"/>
       <c r="N5" s="69"/>
       <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
+      <c r="P5" s="67"/>
       <c r="Q5" s="69"/>
       <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12865,7 +12875,7 @@
       <c r="D6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="62" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="37"/>
@@ -12885,7 +12895,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12916,7 +12926,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12945,7 +12955,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12974,7 +12984,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13003,7 +13013,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13032,7 +13042,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13061,7 +13071,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13092,7 +13102,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13121,7 +13131,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13150,7 +13160,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13179,7 +13189,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14895,13 +14905,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14913,6 +14916,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14956,43 +14966,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15037,26 +15047,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
+      <c r="L4" s="71"/>
       <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
@@ -15066,7 +15076,7 @@
       <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="68" t="s">
@@ -15075,20 +15085,20 @@
       <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -15113,7 +15123,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
@@ -15123,13 +15133,13 @@
       <c r="M5" s="69"/>
       <c r="N5" s="69"/>
       <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
+      <c r="P5" s="67"/>
       <c r="Q5" s="69"/>
       <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15163,7 +15173,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15194,7 +15204,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15223,7 +15233,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15252,7 +15262,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15281,7 +15291,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15310,7 +15320,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15339,7 +15349,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15370,7 +15380,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15399,7 +15409,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15428,7 +15438,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15457,7 +15467,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17173,13 +17183,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17191,6 +17194,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17201,7 +17211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -17234,43 +17244,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -17315,58 +17325,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
+      <c r="L4" s="71"/>
       <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -17391,7 +17401,7 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
@@ -17400,14 +17410,14 @@
       </c>
       <c r="M5" s="69"/>
       <c r="N5" s="69"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="75"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17433,7 +17443,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17464,7 +17474,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17493,7 +17503,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17522,7 +17532,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17551,7 +17561,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17580,7 +17590,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17609,7 +17619,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17640,7 +17650,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17669,7 +17679,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17698,7 +17708,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17727,7 +17737,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -18958,6 +18968,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -18969,13 +18986,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_DLNgocHoan.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_DLNgocHoan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="44" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="116">
   <si>
     <t>STT</t>
   </si>
@@ -287,6 +287,117 @@
   <si>
     <t>Lock: 125.212.203.144,16767</t>
   </si>
+  <si>
+    <t>LE.1.00.---03.181025</t>
+  </si>
+  <si>
+    <t>Thiết bị xuất bán vinaphone, ID: 20190412021734.</t>
+  </si>
+  <si>
+    <t>Không nhận bảo hành</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>LE.1.00.---05.190404</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Lock: device.vnpttracking.vn,32234</t>
+  </si>
+  <si>
+    <t>Thiết bị mất nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>LE.2.00.---27.200525</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>Module GSM có dấu hiệu bị oxi hóa</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15959</t>
+  </si>
+  <si>
+    <t>Thiết bị mất nguồn, module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn GSM/GPS</t>
+  </si>
+  <si>
+    <t>GSM,GPS</t>
+  </si>
+  <si>
+    <t>LE.2.00.---27.200414</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay diode quá áp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16161</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16161</t>
+  </si>
 </sst>
 </file>
 
@@ -488,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -676,28 +787,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,6 +807,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1060,43 +1174,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1141,58 +1255,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1217,23 +1331,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1269,7 +1383,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="58"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1308,7 +1422,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="58"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1345,7 +1459,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="58"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1382,7 +1496,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="58"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1419,7 +1533,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="58"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1448,7 +1562,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="58"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1477,7 +1591,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="58"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1508,7 +1622,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="58"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1537,7 +1651,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="58"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1566,7 +1680,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1595,7 +1709,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3311,6 +3425,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3322,13 +3443,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3339,7 +3453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -3372,43 +3486,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3453,58 +3567,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -3529,23 +3643,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3583,7 +3697,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3614,7 +3728,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3643,7 +3757,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3672,7 +3786,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3701,7 +3815,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3730,7 +3844,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3759,7 +3873,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3790,7 +3904,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3819,7 +3933,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3848,7 +3962,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3877,7 +3991,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5593,6 +5707,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5604,13 +5725,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5654,43 +5768,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5735,58 +5849,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -5811,23 +5925,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5861,7 +5975,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5900,7 +6014,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5937,7 +6051,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5974,7 +6088,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6011,7 +6125,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6040,7 +6154,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6069,7 +6183,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6100,7 +6214,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6129,7 +6243,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6158,7 +6272,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6187,7 +6301,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7903,6 +8017,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7914,13 +8035,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7931,8 +8045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7964,43 +8078,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8045,58 +8159,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -8121,23 +8235,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8159,19 +8273,35 @@
         <v>66</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="J6" s="59"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="K6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8198,19 +8328,35 @@
         <v>66</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="59"/>
+      <c r="I7" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8234,20 +8380,36 @@
       <c r="G8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
+      <c r="H8" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>110</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
+      <c r="K8" s="55" t="s">
+        <v>77</v>
+      </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>111</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8271,20 +8433,36 @@
       <c r="G9" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
+      <c r="H9" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>109</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>111</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8308,20 +8486,38 @@
       <c r="G10" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
+      <c r="H10" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>106</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="K10" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8347,18 +8543,32 @@
       </c>
       <c r="H11" s="56"/>
       <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="L11" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8382,20 +8592,40 @@
       <c r="G12" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="H12" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>104</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8434,7 +8664,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8459,19 +8689,35 @@
         <v>66</v>
       </c>
       <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="L14" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>99</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
+      <c r="O14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8496,19 +8742,35 @@
         <v>66</v>
       </c>
       <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="63">
+        <v>375000</v>
+      </c>
       <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
+      <c r="P15" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8532,20 +8794,40 @@
       <c r="G16" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="H16" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
+      <c r="O16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8570,15 +8852,34 @@
         <v>66</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="I17" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
+      <c r="O17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
       <c r="U17" s="61"/>
@@ -8604,16 +8905,32 @@
         <v>66</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="1"/>
+      <c r="I18" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="L18" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
+      <c r="O18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -8677,17 +8994,35 @@
       <c r="G20" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
+      <c r="H20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="51" t="s">
+        <v>113</v>
+      </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
+      <c r="K20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
+      <c r="O20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
@@ -8695,7 +9030,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -8735,7 +9070,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -8757,17 +9092,37 @@
       <c r="G22" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
+      <c r="H22" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>104</v>
+      </c>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="2"/>
+      <c r="O22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="13"/>
       <c r="U22" s="9" t="s">
@@ -8775,7 +9130,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -8832,17 +9187,35 @@
       <c r="G24" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="51"/>
+      <c r="H24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
+      <c r="K24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="2"/>
+      <c r="O24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S24" s="3"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
@@ -8940,7 +9313,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -8972,7 +9345,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -9004,7 +9377,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -9100,7 +9473,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -9196,7 +9569,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9228,7 +9601,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -9260,7 +9633,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -9378,7 +9751,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -9613,7 +9986,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -10325,6 +10698,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10336,13 +10716,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10386,43 +10759,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10467,58 +10840,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -10543,23 +10916,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10593,7 +10966,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10632,7 +11005,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10669,7 +11042,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10706,7 +11079,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10735,7 +11108,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10764,7 +11137,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10793,7 +11166,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10824,7 +11197,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10853,7 +11226,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10882,7 +11255,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10911,7 +11284,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12627,6 +13000,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12638,13 +13018,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12688,43 +13061,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12769,58 +13142,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -12845,23 +13218,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12895,7 +13268,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12926,7 +13299,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12955,7 +13328,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12984,7 +13357,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13013,7 +13386,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13042,7 +13415,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13071,7 +13444,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13102,7 +13475,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13131,7 +13504,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13160,7 +13533,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13189,7 +13562,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14905,6 +15278,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14916,13 +15296,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14966,43 +15339,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15047,58 +15420,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -15123,23 +15496,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15173,7 +15546,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15204,7 +15577,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15233,7 +15606,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15262,7 +15635,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15291,7 +15664,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15320,7 +15693,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15349,7 +15722,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15380,7 +15753,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15409,7 +15782,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15438,7 +15811,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15467,7 +15840,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17183,6 +17556,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17194,13 +17574,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17244,43 +17617,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -17325,58 +17698,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -17401,23 +17774,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17443,7 +17816,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17474,7 +17847,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17503,7 +17876,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17532,7 +17905,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17561,7 +17934,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17590,7 +17963,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17619,7 +17992,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17650,7 +18023,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17679,7 +18052,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17708,7 +18081,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17737,7 +18110,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -18968,13 +19341,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -18986,6 +19352,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_DLNgocHoan.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_DLNgocHoan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="44" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="140">
   <si>
     <t>STT</t>
   </si>
@@ -397,6 +397,78 @@
   </si>
   <si>
     <t>Lock: 125.212.203.114,16161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>203.162.121.016,01102</t>
+  </si>
+  <si>
+    <t>Thiết bị xuất bán TechGlobal</t>
+  </si>
+  <si>
+    <t>Thiết bị xuất bán Gia Thành</t>
+  </si>
+  <si>
+    <t>Mạch oxi hóa nặng</t>
+  </si>
+  <si>
+    <t>Không sửa chữa</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Cấu hình lại baurate GPS</t>
+  </si>
+  <si>
+    <t>Sai baurate GPS</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200520.CAR01A10</t>
+  </si>
+  <si>
+    <t>125.212.203.114/16060</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624.CAR01A10</t>
+  </si>
+  <si>
+    <t>Thay dây nguồn</t>
+  </si>
+  <si>
+    <t>Thay IC nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lỗi connector</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector</t>
+  </si>
+  <si>
+    <t>ID: 0032002B98</t>
+  </si>
+  <si>
+    <t>C43_V3322_T210926.95</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Đổi mới thiết bị</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>mdbr.vnetgps.com,21083</t>
+  </si>
+  <si>
+    <t>V3.3.21.3_R21111601</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1409,17 +1481,31 @@
       <c r="G7" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="37" t="s">
+        <v>133</v>
+      </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="59"/>
+      <c r="J7" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="58"/>
       <c r="U7" s="73"/>
@@ -1486,7 +1572,9 @@
       <c r="H9" s="37"/>
       <c r="I9" s="51"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
       <c r="N9" s="1"/>
@@ -1521,16 +1609,32 @@
         <v>63</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
+      <c r="I10" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>134</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>136</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="58"/>
       <c r="U10" s="73"/>
@@ -1859,7 +1963,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2040,7 +2144,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -2168,7 +2272,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2360,7 +2464,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2446,7 +2550,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="13"/>
     </row>
@@ -2478,7 +2582,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -5735,8 +5839,2398 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="49.85546875" style="19" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="35.28515625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
+      <c r="B5" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="64"/>
+      <c r="K5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="54">
+        <v>44742</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="38">
+        <v>860906041168680</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="61"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="54">
+        <v>44742</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="38">
+        <v>860906041193761</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="59"/>
+      <c r="K7" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="61"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="54">
+        <v>44742</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="38">
+        <v>860906041134245</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="61"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="54">
+        <v>44742</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="38">
+        <v>860906041169696</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="61"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="54">
+        <v>44742</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="38">
+        <v>860906041173581</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="61"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="61"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="61"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="61"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="61"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="61"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="61"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="61"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>3</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>2</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>4</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>6</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X115"/>
+  <sheetViews>
+    <sheetView showZeros="0" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5953,26 +8447,42 @@
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="38">
-        <v>860906041168680</v>
+        <v>868183038013707</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="J6" s="59"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="K6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
       <c r="U6" s="72" t="s">
@@ -5992,26 +8502,42 @@
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="38">
-        <v>860906041193761</v>
+        <v>868183033803151</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="59"/>
+      <c r="I7" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
       <c r="U7" s="73"/>
@@ -6029,26 +8555,42 @@
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="38">
-        <v>860906041134245</v>
+        <v>868183035856017</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
+      <c r="H8" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>110</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
+      <c r="K8" s="55" t="s">
+        <v>77</v>
+      </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>111</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="61"/>
       <c r="U8" s="73"/>
@@ -6066,26 +8608,42 @@
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="38">
-        <v>860906041169696</v>
+        <v>868183033867255</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
+      <c r="H9" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>109</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>111</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="61"/>
       <c r="U9" s="73"/>
@@ -6103,26 +8661,44 @@
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="38">
-        <v>860906041173581</v>
+        <v>868183038083452</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
+      <c r="H10" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>106</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="K10" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
       <c r="U10" s="73"/>
@@ -6135,23 +8711,45 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="54">
+        <v>44742</v>
+      </c>
       <c r="C11" s="54"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="D11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="38">
+        <v>868183033815692</v>
+      </c>
       <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H11" s="56"/>
       <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="L11" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
       <c r="U11" s="73"/>
@@ -6164,23 +8762,51 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="54">
+        <v>44742</v>
+      </c>
       <c r="C12" s="54"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="D12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="38">
+        <v>868183033833117</v>
+      </c>
       <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="G12" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>104</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
       <c r="U12" s="72" t="s">
@@ -6195,23 +8821,47 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="54">
+        <v>44742</v>
+      </c>
       <c r="C13" s="54"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="D13" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="38">
+        <v>868183035850390</v>
+      </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="L13" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="61"/>
       <c r="U13" s="73"/>
@@ -6224,23 +8874,47 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="54">
+        <v>44742</v>
+      </c>
       <c r="C14" s="54"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
+      <c r="D14" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="38">
+        <v>867857039894931</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="L14" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>99</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
+      <c r="O14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
       <c r="U14" s="73"/>
@@ -6253,23 +8927,47 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="54"/>
+      <c r="B15" s="54">
+        <v>44742</v>
+      </c>
       <c r="C15" s="54"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="37"/>
+      <c r="D15" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="38">
+        <v>868183038517772</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="63">
+        <v>375000</v>
+      </c>
       <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
+      <c r="P15" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
       <c r="U15" s="73"/>
@@ -6282,23 +8980,51 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="54"/>
+      <c r="B16" s="54">
+        <v>44742</v>
+      </c>
       <c r="C16" s="54"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="D16" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="38">
+        <v>868183035929335</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
+      <c r="O16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
       <c r="U16" s="74"/>
@@ -6311,22 +9037,49 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="54">
+        <v>44742</v>
+      </c>
       <c r="C17" s="54"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="37"/>
+      <c r="D17" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="38">
+        <v>868183035882963</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="I17" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
+      <c r="O17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
       <c r="U17" s="61"/>
@@ -6337,23 +9090,47 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="54"/>
+      <c r="B18" s="54">
+        <v>44742</v>
+      </c>
       <c r="C18" s="54"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="37"/>
+      <c r="D18" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="38">
+        <v>868183035916522</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="1"/>
+      <c r="I18" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="L18" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
+      <c r="O18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -6364,23 +9141,49 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="54">
+        <v>44742</v>
+      </c>
       <c r="C19" s="54"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="51"/>
+      <c r="D19" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="38">
+        <v>868183038488867</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="51" t="s">
+        <v>113</v>
+      </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
+      <c r="K19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
+      <c r="O19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
       <c r="U19" s="60" t="s">
@@ -6395,23 +9198,49 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="54">
+        <v>44742</v>
+      </c>
       <c r="C20" s="54"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
+      <c r="D20" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="38">
+        <v>868183035885271</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="51" t="s">
+        <v>113</v>
+      </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
+      <c r="K20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
+      <c r="O20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
@@ -6419,7 +9248,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6427,12 +9256,20 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="54">
+        <v>44742</v>
+      </c>
       <c r="C21" s="54"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="37"/>
+      <c r="D21" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="38">
+        <v>868183035928477</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="51"/>
       <c r="J21" s="1"/>
@@ -6451,7 +9288,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -6459,23 +9296,51 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="54">
+        <v>44742</v>
+      </c>
       <c r="C22" s="54"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
+      <c r="D22" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="38">
+        <v>868183035899231</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>104</v>
+      </c>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="2"/>
+      <c r="O22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="13"/>
       <c r="U22" s="9" t="s">
@@ -6483,7 +9348,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -6491,23 +9356,47 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="54">
+        <v>44742</v>
+      </c>
       <c r="C23" s="54"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="37"/>
+      <c r="D23" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="38">
+        <v>868183034631155</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="1"/>
+      <c r="I23" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="K23" s="9"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
+      <c r="L23" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="2"/>
+      <c r="O23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -6518,23 +9407,49 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="54">
+        <v>44742</v>
+      </c>
       <c r="C24" s="54"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="51"/>
+      <c r="D24" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="38">
+        <v>868183034729942</v>
+      </c>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
+      <c r="K24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="2"/>
+      <c r="O24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S24" s="3"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
@@ -6632,7 +9547,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -6664,7 +9579,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -6696,7 +9611,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -6792,7 +9707,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -6888,7 +9803,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -6920,7 +9835,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -6952,7 +9867,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7070,7 +9985,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -7305,7 +10220,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -8041,12 +10956,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8263,32 +11178,28 @@
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="37" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E6" s="38">
-        <v>868183038013707</v>
+        <v>868345031040587</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>77</v>
-      </c>
+      <c r="H6" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>83</v>
@@ -8297,7 +11208,7 @@
         <v>19</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
@@ -8318,41 +11229,37 @@
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="37" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E7" s="38">
-        <v>868183033803151</v>
+        <v>866192037844287</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="10" t="s">
-        <v>110</v>
-      </c>
+      <c r="I7" s="10"/>
       <c r="J7" s="39" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K7" s="55"/>
-      <c r="L7" s="39" t="s">
-        <v>77</v>
-      </c>
+      <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P7" s="39" t="s">
         <v>83</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="61"/>
@@ -8371,32 +11278,28 @@
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="37" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E8" s="38">
-        <v>868183035856017</v>
+        <v>868926033920858</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37" t="s">
         <v>66</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>110</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="I8" s="51"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="55" t="s">
-        <v>77</v>
-      </c>
+      <c r="K8" s="55"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P8" s="39" t="s">
         <v>83</v>
@@ -8424,32 +11327,32 @@
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="37" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E9" s="38">
-        <v>868183033867255</v>
+        <v>866192037755996</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37" t="s">
         <v>66</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P9" s="39" t="s">
         <v>83</v>
@@ -8472,49 +11375,23 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B10" s="54"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="38">
-        <v>868183038083452</v>
-      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>106</v>
-      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>38</v>
-      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P10" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="61"/>
       <c r="U10" s="73"/>
@@ -8527,45 +11404,23 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B11" s="54"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="38">
-        <v>868183033815692</v>
-      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="37" t="s">
-        <v>66</v>
-      </c>
+      <c r="G11" s="37"/>
       <c r="H11" s="56"/>
       <c r="I11" s="51"/>
-      <c r="J11" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>108</v>
-      </c>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P11" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="61"/>
       <c r="U11" s="73"/>
@@ -8578,51 +11433,23 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B12" s="54"/>
       <c r="C12" s="54"/>
-      <c r="D12" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="38">
-        <v>868183033833117</v>
-      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="37"/>
-      <c r="G12" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L12" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>104</v>
-      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P12" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="61"/>
       <c r="U12" s="72" t="s">
@@ -8637,20 +11464,12 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B13" s="54"/>
       <c r="C13" s="54"/>
-      <c r="D13" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="38">
-        <v>868183035850390</v>
-      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="37"/>
-      <c r="G13" s="37" t="s">
-        <v>66</v>
-      </c>
+      <c r="G13" s="37"/>
       <c r="H13" s="47"/>
       <c r="I13" s="51"/>
       <c r="J13" s="1"/>
@@ -8674,47 +11493,23 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B14" s="54"/>
       <c r="C14" s="54"/>
-      <c r="D14" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="38">
-        <v>867857039894931</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37" t="s">
-        <v>66</v>
-      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="47"/>
-      <c r="I14" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="I14" s="51"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="39" t="s">
-        <v>99</v>
-      </c>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P14" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
       <c r="U14" s="73"/>
@@ -8727,47 +11522,23 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B15" s="54"/>
       <c r="C15" s="54"/>
-      <c r="D15" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="38">
-        <v>868183038517772</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37" t="s">
-        <v>66</v>
-      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="37"/>
       <c r="H15" s="47"/>
-      <c r="I15" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="I15" s="51"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="39"/>
-      <c r="M15" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="N15" s="63">
-        <v>375000</v>
-      </c>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
       <c r="U15" s="73"/>
@@ -8780,51 +11551,23 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B16" s="54"/>
       <c r="C16" s="54"/>
-      <c r="D16" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="38">
-        <v>868183035929335</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" s="39" t="s">
-        <v>89</v>
-      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
       <c r="U16" s="74"/>
@@ -8837,49 +11580,22 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B17" s="54"/>
       <c r="C17" s="54"/>
-      <c r="D17" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="38">
-        <v>868183035882963</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37" t="s">
-        <v>66</v>
-      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>89</v>
-      </c>
+      <c r="I17" s="51"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P17" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
       <c r="U17" s="61"/>
@@ -8890,47 +11606,23 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B18" s="54"/>
       <c r="C18" s="54"/>
-      <c r="D18" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="38">
-        <v>868183035916522</v>
-      </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37" t="s">
-        <v>66</v>
-      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="I18" s="51"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" s="39" t="s">
-        <v>108</v>
-      </c>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P18" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="3"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -8941,20 +11633,12 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B19" s="54"/>
       <c r="C19" s="54"/>
-      <c r="D19" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="38">
-        <v>868183038488867</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37" t="s">
-        <v>66</v>
-      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="1"/>
       <c r="I19" s="51"/>
       <c r="J19" s="1"/>
@@ -8980,49 +11664,23 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B20" s="54"/>
       <c r="C20" s="54"/>
-      <c r="D20" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="38">
-        <v>868183035885271</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="51" t="s">
-        <v>113</v>
-      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" s="39" t="s">
-        <v>38</v>
-      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P20" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="3"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
@@ -9030,7 +11688,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -9038,20 +11696,12 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B21" s="54"/>
       <c r="C21" s="54"/>
-      <c r="D21" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="38">
-        <v>868183035928477</v>
-      </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37" t="s">
-        <v>66</v>
-      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="1"/>
       <c r="I21" s="51"/>
       <c r="J21" s="1"/>
@@ -9070,7 +11720,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -9078,51 +11728,23 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B22" s="54"/>
       <c r="C22" s="54"/>
-      <c r="D22" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="38">
-        <v>868183035899231</v>
-      </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M22" s="39" t="s">
-        <v>104</v>
-      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P22" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="3"/>
       <c r="T22" s="13"/>
       <c r="U22" s="9" t="s">
@@ -9130,7 +11752,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -9138,20 +11760,12 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B23" s="54"/>
       <c r="C23" s="54"/>
-      <c r="D23" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="38">
-        <v>868183034631155</v>
-      </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37" t="s">
-        <v>66</v>
-      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
       <c r="H23" s="9"/>
       <c r="I23" s="51"/>
       <c r="J23" s="1"/>
@@ -9173,49 +11787,23 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B24" s="54"/>
       <c r="C24" s="54"/>
-      <c r="D24" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="38">
-        <v>868183034729942</v>
-      </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="51" t="s">
-        <v>87</v>
-      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>81</v>
-      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="P24" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
       <c r="S24" s="3"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
@@ -9313,7 +11901,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -9345,7 +11933,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -9377,7 +11965,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -9441,7 +12029,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -9473,7 +12061,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -9569,7 +12157,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9633,7 +12221,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -9751,7 +12339,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -9986,7 +12574,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -10722,12 +13310,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10944,10 +13532,10 @@
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="38">
-        <v>868345031040587</v>
+        <v>57</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>70</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
@@ -10955,15 +13543,27 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="59"/>
+      <c r="J6" s="39" t="s">
+        <v>131</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>132</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
       <c r="U6" s="72" t="s">
@@ -10978,20 +13578,12 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B7" s="54"/>
       <c r="C7" s="54"/>
-      <c r="D7" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="38">
-        <v>866192037844278</v>
-      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="37" t="s">
-        <v>66</v>
-      </c>
+      <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="10"/>
       <c r="J7" s="59"/>
@@ -11015,20 +13607,12 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B8" s="54"/>
       <c r="C8" s="54"/>
-      <c r="D8" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="38">
-        <v>868926033920858</v>
-      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="37" t="s">
-        <v>66</v>
-      </c>
+      <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="51"/>
       <c r="J8" s="1"/>
@@ -11052,20 +13636,12 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="54">
-        <v>44742</v>
-      </c>
+      <c r="B9" s="54"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="38">
-        <v>866192037755996</v>
-      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="37" t="s">
-        <v>66</v>
-      </c>
+      <c r="G9" s="37"/>
       <c r="H9" s="37"/>
       <c r="I9" s="51"/>
       <c r="J9" s="1"/>
@@ -11434,7 +14010,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -11743,7 +14319,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -11935,7 +14511,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -13024,12 +15600,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13246,26 +15822,44 @@
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="E6" s="38">
+        <v>861694037944517</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="I6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>124</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
       <c r="U6" s="72" t="s">
@@ -13680,7 +16274,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -14053,7 +16647,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -14213,2285 +16807,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
-      </c>
-      <c r="W37" s="13"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="13"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="13"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>35</v>
-      </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="9">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="13"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>36</v>
-      </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="9">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="13"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>37</v>
-      </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="13"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>38</v>
-      </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="13"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>39</v>
-      </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>40</v>
-      </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>41</v>
-      </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>42</v>
-      </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>43</v>
-      </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="34">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44</v>
-      </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="32"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
-        <v>45</v>
-      </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="32"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>46</v>
-      </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="32"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>47</v>
-      </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="32"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>48</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="32"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>49</v>
-      </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="32"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>50</v>
-      </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="32"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>51</v>
-      </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="32"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>52</v>
-      </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="32"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-    </row>
-    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>53</v>
-      </c>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="32"/>
-    </row>
-    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>54</v>
-      </c>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="32"/>
-    </row>
-    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>55</v>
-      </c>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="32"/>
-    </row>
-    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>56</v>
-      </c>
-      <c r="B61" s="54"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="32"/>
-    </row>
-    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>57</v>
-      </c>
-      <c r="B62" s="54"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-    </row>
-    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>58</v>
-      </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-    </row>
-    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>59</v>
-      </c>
-      <c r="B64" s="54"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-    </row>
-    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>60</v>
-      </c>
-      <c r="B65" s="54"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-    </row>
-    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X115"/>
-  <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="17" style="19" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="53" style="19" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="58" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="19"/>
-    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="44"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="26"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="26"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="45"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="60" t="s">
         <v>1</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="45"/>
-    </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="54">
-        <v>44742</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="38">
-        <v>861694037944517</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="61"/>
-    </row>
-    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="61"/>
-    </row>
-    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="61"/>
-    </row>
-    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="61"/>
-    </row>
-    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="61"/>
-    </row>
-    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="61"/>
-    </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="61"/>
-    </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="61"/>
-    </row>
-    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="61"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="61"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="61"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="61"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>13</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>14</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="46"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>15</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>17</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="13"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="13"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="46"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="13"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="13"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="13"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="13"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="9">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="13"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="9">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="13"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="13"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="9">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="13"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>29</v>
-      </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="9">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="13"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="13"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="9">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="13"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="9">
-        <f>SUM(V26:V36)</f>
-        <v>0</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_DLNgocHoan.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_DLNgocHoan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="44" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="147">
   <si>
     <t>STT</t>
   </si>
@@ -339,9 +339,6 @@
     <t>Module GSM có dấu hiệu bị oxi hóa</t>
   </si>
   <si>
-    <t>Thay module GSM/GPS</t>
-  </si>
-  <si>
     <t>125.212.203.114,15959</t>
   </si>
   <si>
@@ -469,6 +466,30 @@
   </si>
   <si>
     <t>V3.3.21.3_R21111601</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS (Khách báo không sửa chữa)</t>
+  </si>
+  <si>
+    <t>Mạch oxi hóa</t>
+  </si>
+  <si>
+    <t>Lỗi ống kính camera</t>
+  </si>
+  <si>
+    <t>Thiết bị bắt sóng có vấn đề</t>
+  </si>
+  <si>
+    <t>Cầu chì bị đứt, WP21120135S01463</t>
+  </si>
+  <si>
+    <t>Anh thông đang giữ, WP21120135S01459</t>
+  </si>
+  <si>
+    <t>WP21120135S01438</t>
+  </si>
+  <si>
+    <t>WP21120135S01398</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1450,9 @@
       <c r="B6" s="54">
         <v>44742</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44759</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
@@ -1442,17 +1465,31 @@
       <c r="G6" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="37" t="s">
+        <v>143</v>
+      </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="59"/>
+      <c r="J6" s="39" t="s">
+        <v>102</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>135</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="58"/>
       <c r="U6" s="72" t="s">
@@ -1470,7 +1507,9 @@
       <c r="B7" s="54">
         <v>44742</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44759</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>64</v>
       </c>
@@ -1482,11 +1521,11 @@
         <v>63</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
@@ -1521,7 +1560,9 @@
       <c r="B8" s="54">
         <v>44742</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44759</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>64</v>
       </c>
@@ -1532,17 +1573,31 @@
       <c r="G8" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="37"/>
+      <c r="H8" s="37" t="s">
+        <v>144</v>
+      </c>
       <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="K8" s="55"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>135</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="58"/>
       <c r="U8" s="73"/>
@@ -1558,7 +1613,9 @@
       <c r="B9" s="54">
         <v>44742</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44759</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>64</v>
       </c>
@@ -1569,19 +1626,33 @@
       <c r="G9" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="37"/>
+      <c r="H9" s="37" t="s">
+        <v>145</v>
+      </c>
       <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="K9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>135</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="58"/>
       <c r="U9" s="73"/>
@@ -1597,7 +1668,9 @@
       <c r="B10" s="54">
         <v>44742</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="54">
+        <v>44759</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>64</v>
       </c>
@@ -1608,23 +1681,25 @@
       <c r="G10" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="37"/>
+      <c r="H10" s="51" t="s">
+        <v>146</v>
+      </c>
       <c r="I10" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P10" s="39" t="s">
         <v>83</v>
@@ -1963,7 +2038,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2208,7 +2283,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2272,7 +2347,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2464,7 +2539,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2550,7 +2625,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W40" s="13"/>
     </row>
@@ -3558,7 +3633,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C7" sqref="C7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3773,7 +3848,9 @@
       <c r="B6" s="54">
         <v>44742</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44759</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>67</v>
       </c>
@@ -3793,12 +3870,22 @@
         <v>77</v>
       </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>110</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="61"/>
       <c r="U6" s="72" t="s">
@@ -4213,7 +4300,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -4714,7 +4801,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -4746,7 +4833,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5839,8 +5926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6055,7 +6142,9 @@
       <c r="B6" s="54">
         <v>44742</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44759</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -6068,14 +6157,14 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J6" s="59"/>
       <c r="K6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M6" s="39" t="s">
         <v>38</v>
@@ -6110,7 +6199,9 @@
       <c r="B7" s="54">
         <v>44742</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44759</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>45</v>
       </c>
@@ -6123,14 +6214,14 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J7" s="59"/>
       <c r="K7" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M7" s="39" t="s">
         <v>38</v>
@@ -6163,7 +6254,9 @@
       <c r="B8" s="54">
         <v>44742</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44759</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>45</v>
       </c>
@@ -6176,17 +6269,17 @@
       </c>
       <c r="H8" s="37"/>
       <c r="I8" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
@@ -6216,7 +6309,9 @@
       <c r="B9" s="54">
         <v>44742</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44759</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>45</v>
       </c>
@@ -6233,13 +6328,13 @@
         <v>32</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M9" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
@@ -6269,7 +6364,9 @@
       <c r="B10" s="54">
         <v>44742</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="54">
+        <v>44759</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>45</v>
       </c>
@@ -6282,14 +6379,14 @@
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M10" s="39" t="s">
         <v>38</v>
@@ -8229,8 +8326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8445,7 +8542,9 @@
       <c r="B6" s="54">
         <v>44742</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44759</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -8458,11 +8557,11 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J6" s="59"/>
       <c r="K6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L6" s="39" t="s">
         <v>77</v>
@@ -8500,7 +8599,9 @@
       <c r="B7" s="54">
         <v>44742</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44759</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -8513,17 +8614,17 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39" t="s">
         <v>77</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
@@ -8553,7 +8654,9 @@
       <c r="B8" s="54">
         <v>44742</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44759</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -8568,7 +8671,7 @@
         <v>94</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="55" t="s">
@@ -8576,7 +8679,7 @@
       </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
@@ -8606,7 +8709,9 @@
       <c r="B9" s="54">
         <v>44742</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44759</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
@@ -8621,7 +8726,7 @@
         <v>94</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
@@ -8629,7 +8734,7 @@
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
@@ -8659,7 +8764,9 @@
       <c r="B10" s="54">
         <v>44742</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="54">
+        <v>44759</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>44</v>
       </c>
@@ -8674,7 +8781,7 @@
         <v>94</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="24" t="s">
@@ -8714,7 +8821,9 @@
       <c r="B11" s="54">
         <v>44742</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="54">
+        <v>44759</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>44</v>
       </c>
@@ -8728,14 +8837,14 @@
       <c r="H11" s="56"/>
       <c r="I11" s="51"/>
       <c r="J11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="39" t="s">
         <v>77</v>
       </c>
       <c r="M11" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
@@ -8765,7 +8874,9 @@
       <c r="B12" s="54">
         <v>44742</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="54">
+        <v>44759</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>44</v>
       </c>
@@ -8780,19 +8891,19 @@
         <v>94</v>
       </c>
       <c r="I12" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L12" s="39" t="s">
         <v>77</v>
       </c>
       <c r="M12" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
@@ -8824,7 +8935,9 @@
       <c r="B13" s="54">
         <v>44742</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="54">
+        <v>44759</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>44</v>
       </c>
@@ -8837,17 +8950,17 @@
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="39" t="s">
         <v>77</v>
       </c>
       <c r="M13" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
@@ -8877,7 +8990,9 @@
       <c r="B14" s="54">
         <v>44742</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="54">
+        <v>44759</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>44</v>
       </c>
@@ -8890,17 +9005,17 @@
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="39" t="s">
         <v>77</v>
       </c>
       <c r="M14" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
@@ -8913,7 +9028,7 @@
         <v>18</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="61"/>
@@ -8930,7 +9045,9 @@
       <c r="B15" s="54">
         <v>44742</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="54">
+        <v>44759</v>
+      </c>
       <c r="D15" s="37" t="s">
         <v>44</v>
       </c>
@@ -8953,12 +9070,12 @@
       </c>
       <c r="L15" s="39"/>
       <c r="M15" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="N15" s="63">
-        <v>375000</v>
-      </c>
-      <c r="O15" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="N15" s="63"/>
+      <c r="O15" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="P15" s="39" t="s">
         <v>83</v>
       </c>
@@ -8983,7 +9100,9 @@
       <c r="B16" s="54">
         <v>44742</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="54">
+        <v>44759</v>
+      </c>
       <c r="D16" s="37" t="s">
         <v>44</v>
       </c>
@@ -9040,7 +9159,9 @@
       <c r="B17" s="54">
         <v>44742</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="54">
+        <v>44759</v>
+      </c>
       <c r="D17" s="37" t="s">
         <v>44</v>
       </c>
@@ -9093,7 +9214,9 @@
       <c r="B18" s="54">
         <v>44742</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="54">
+        <v>44759</v>
+      </c>
       <c r="D18" s="37" t="s">
         <v>44</v>
       </c>
@@ -9106,17 +9229,17 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="39" t="s">
         <v>77</v>
       </c>
       <c r="M18" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
@@ -9144,7 +9267,9 @@
       <c r="B19" s="54">
         <v>44742</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="54">
+        <v>44759</v>
+      </c>
       <c r="D19" s="37" t="s">
         <v>44</v>
       </c>
@@ -9159,11 +9284,11 @@
         <v>94</v>
       </c>
       <c r="I19" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L19" s="39" t="s">
         <v>77</v>
@@ -9201,7 +9326,9 @@
       <c r="B20" s="54">
         <v>44742</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="54">
+        <v>44759</v>
+      </c>
       <c r="D20" s="37" t="s">
         <v>44</v>
       </c>
@@ -9216,11 +9343,11 @@
         <v>94</v>
       </c>
       <c r="I20" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L20" s="39" t="s">
         <v>77</v>
@@ -9259,7 +9386,9 @@
       <c r="B21" s="54">
         <v>44742</v>
       </c>
-      <c r="C21" s="54"/>
+      <c r="C21" s="54">
+        <v>44759</v>
+      </c>
       <c r="D21" s="37" t="s">
         <v>44</v>
       </c>
@@ -9272,15 +9401,27 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="51"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="M21" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="2"/>
+      <c r="O21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
@@ -9288,7 +9429,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -9299,7 +9440,9 @@
       <c r="B22" s="54">
         <v>44742</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="54">
+        <v>44759</v>
+      </c>
       <c r="D22" s="37" t="s">
         <v>44</v>
       </c>
@@ -9314,19 +9457,19 @@
         <v>94</v>
       </c>
       <c r="I22" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L22" s="39" t="s">
         <v>77</v>
       </c>
       <c r="M22" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
@@ -9359,7 +9502,9 @@
       <c r="B23" s="54">
         <v>44742</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="54">
+        <v>44759</v>
+      </c>
       <c r="D23" s="37" t="s">
         <v>44</v>
       </c>
@@ -9372,17 +9517,17 @@
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="39" t="s">
         <v>77</v>
       </c>
       <c r="M23" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
@@ -9410,7 +9555,9 @@
       <c r="B24" s="54">
         <v>44742</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="54">
+        <v>44759</v>
+      </c>
       <c r="D24" s="37" t="s">
         <v>44</v>
       </c>
@@ -9675,7 +9822,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -9867,7 +10014,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -9985,7 +10132,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -10961,7 +11108,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11176,7 +11323,9 @@
       <c r="B6" s="54">
         <v>44742</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44759</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>68</v>
       </c>
@@ -11188,7 +11337,7 @@
         <v>66</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="39"/>
@@ -11227,7 +11376,9 @@
       <c r="B7" s="54">
         <v>44742</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44759</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>68</v>
       </c>
@@ -11241,12 +11392,12 @@
       <c r="H7" s="37"/>
       <c r="I7" s="10"/>
       <c r="J7" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
@@ -11276,7 +11427,9 @@
       <c r="B8" s="54">
         <v>44742</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44759</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>68</v>
       </c>
@@ -11288,7 +11441,7 @@
         <v>66</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I8" s="51"/>
       <c r="J8" s="1"/>
@@ -11325,7 +11478,9 @@
       <c r="B9" s="54">
         <v>44742</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44759</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>68</v>
       </c>
@@ -11337,14 +11492,14 @@
         <v>66</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39" t="s">
@@ -13315,7 +13470,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13530,7 +13685,9 @@
       <c r="B6" s="54">
         <v>44742</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44759</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>57</v>
       </c>
@@ -13544,12 +13701,12 @@
       <c r="H6" s="37"/>
       <c r="I6" s="10"/>
       <c r="J6" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
@@ -15604,8 +15761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15820,7 +15977,9 @@
       <c r="B6" s="54">
         <v>44742</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44759</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>69</v>
       </c>
@@ -15833,19 +15992,19 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="M6" s="39" t="s">
         <v>123</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>124</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_DLNgocHoan.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_DLNgocHoan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang6\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNETGPS\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang6\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="44" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="149">
   <si>
     <t>STT</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>SIM</t>
+  </si>
+  <si>
+    <t>WP21120135S01459</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1569,7 @@
         <v>63</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I8" s="49"/>
       <c r="J8" s="1" t="s">
@@ -18051,7 +18054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B41" sqref="B41:R41"/>
     </sheetView>
   </sheetViews>
